--- a/stsData2022/hainan_covid19.xlsx
+++ b/stsData2022/hainan_covid19.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dxlin\jobs\tools\xterm\slash\RemoteFiles\67552_2_0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB694951-E5EA-4947-937A-97476C1EB93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="924" yWindow="5160" windowWidth="20598" windowHeight="12318" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,27 +27,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">date</t>
+    <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">con</t>
+    <t>con</t>
   </si>
   <si>
-    <t xml:space="preserve">asy</t>
+    <t>asy</t>
   </si>
   <si>
-    <t xml:space="preserve">asytocon</t>
+    <t>asytocon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -50,25 +54,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -81,7 +76,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -89,73 +84,341 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.5"/>
+    <col min="1" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="14.1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -169,459 +432,473 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>44774</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>44775</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <v>44776</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>24</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <v>44777</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>127</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>35</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <v>44778</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>262</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>46</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>44779</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>297</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>186</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
         <v>44780</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>259</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>245</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
         <v>44781</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>300</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>171</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <v>44782</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>285</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>285</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
         <v>44783</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>559</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>805</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
         <v>44784</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>595</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>614</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
         <v>44785</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>594</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>832</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
         <v>44786</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>494</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>846</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
         <v>44787</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>582</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>580</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
         <v>44788</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>426</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>785</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
         <v>44789</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>482</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>1181</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
         <v>44790</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>496</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>1522</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
         <v>44791</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>441</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>1058</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
         <v>44792</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>469</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>732</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>141</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
         <v>44793</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>440</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>625</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>184</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
         <v>44794</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>232</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>535</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>82</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
         <v>44795</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>205</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>520</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>49</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
         <v>44796</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>264</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>336</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>161</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
         <v>44797</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>217</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>309</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>125</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
         <v>44798</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>111</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>285</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>39</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
         <v>44799</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>91</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>229</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
         <v>44800</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>70</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>125</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>42</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
         <v>44801</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>34</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>98</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
         <v>44802</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>37</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>55</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>16</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
         <v>44803</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>36</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>29</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>22</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
         <v>44804</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>24</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>67</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
         <v>44805</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>27</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>75</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>13</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
